--- a/Intranet/test cases/import Employee Sample.xlsx
+++ b/Intranet/test cases/import Employee Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STS\simple_bi_tool\Intranet\test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DotNet\automation-tool-source\Intranet\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE131253-9854-4318-8D08-380C266BD4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3A482F-C1CF-41FD-9DDE-24D12E0F898D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -522,28 +522,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469DA315-7D92-470F-A746-E9829220CF23}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A4" sqref="A4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -682,6 +682,53 @@
       </c>
       <c r="O3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>123456678</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>70000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>321456789</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -689,8 +736,9 @@
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{D86E208B-7FD8-4B0E-B771-03FF734F62C6}"/>
     <hyperlink ref="N3" r:id="rId2" xr:uid="{D046751B-736C-4512-90C7-4F7DB37D2FFA}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{192942B9-814A-4E33-B663-9D094DDEA92B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Intranet/test cases/import Employee Sample.xlsx
+++ b/Intranet/test cases/import Employee Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DotNet\automation-tool-source\Intranet\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3A482F-C1CF-41FD-9DDE-24D12E0F898D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0862FA5C-AD86-4F83-808F-6C69F17E1692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -138,6 +138,27 @@
   </si>
   <si>
     <t>this is hoan note</t>
+  </si>
+  <si>
+    <t>HoanLeV2</t>
+  </si>
+  <si>
+    <t>HoanLeV2083</t>
+  </si>
+  <si>
+    <t>24/05/1991</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>24/05/1992</t>
+  </si>
+  <si>
+    <t>HoanLeV4</t>
+  </si>
+  <si>
+    <t>HoanLeV2099</t>
   </si>
 </sst>
 </file>
@@ -522,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469DA315-7D92-470F-A746-E9829220CF23}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:O4"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,14 +752,104 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>123456679</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>70001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5">
+        <v>411111111</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>123456666</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>70002</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6">
+        <v>411111112</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{D86E208B-7FD8-4B0E-B771-03FF734F62C6}"/>
     <hyperlink ref="N3" r:id="rId2" xr:uid="{D046751B-736C-4512-90C7-4F7DB37D2FFA}"/>
     <hyperlink ref="N4" r:id="rId3" xr:uid="{192942B9-814A-4E33-B663-9D094DDEA92B}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{5DDD0144-A01A-4A79-B910-6FC5A519CF38}"/>
+    <hyperlink ref="N6" r:id="rId5" xr:uid="{3BEC7E57-6BDA-4709-858C-D8BB24732E65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Intranet/test cases/import Employee Sample.xlsx
+++ b/Intranet/test cases/import Employee Sample.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DotNet\automation-tool-source\Intranet\test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STS\automation-tool-source\Intranet\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0862FA5C-AD86-4F83-808F-6C69F17E1692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA8CB3-3903-41D6-A2A8-42AC85D65974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Employee Code</t>
   </si>
   <si>
-    <t>Rank (Role)</t>
-  </si>
-  <si>
     <t>Dept</t>
   </si>
   <si>
@@ -159,13 +156,22 @@
   </si>
   <si>
     <t>HoanLeV2099</t>
+  </si>
+  <si>
+    <t>Intranet Role</t>
+  </si>
+  <si>
+    <t> Supper Admin</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +198,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -221,13 +233,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,28 +556,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469DA315-7D92-470F-A746-E9829220CF23}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,272 +586,290 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
       <c r="H2">
         <v>123456678</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2">
         <v>70000</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>321456789</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
       </c>
       <c r="H3">
         <v>123456679</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>70000</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3">
         <v>3214567885</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
       <c r="H4">
         <v>123456678</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>70000</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4">
         <v>321456789</v>
       </c>
       <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
       <c r="H5">
         <v>123456679</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>70001</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5">
         <v>411111111</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
       </c>
       <c r="H6">
         <v>123456666</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>70002</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>411111112</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Intranet/test cases/import Employee Sample.xlsx
+++ b/Intranet/test cases/import Employee Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STS\automation-tool-source\Intranet\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA8CB3-3903-41D6-A2A8-42AC85D65974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608F7DC-B154-4A9F-B878-67FC28F3C6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -161,10 +161,16 @@
     <t>Intranet Role</t>
   </si>
   <si>
-    <t> Supper Admin</t>
-  </si>
-  <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>Super Admin</t>
+  </si>
+  <si>
+    <t>SM Manager</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -672,7 +678,7 @@
         <v>22</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -722,7 +728,7 @@
         <v>22</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
         <v>33</v>
@@ -772,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
         <v>23</v>
@@ -822,7 +828,7 @@
         <v>22</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -869,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Intranet/test cases/import Employee Sample.xlsx
+++ b/Intranet/test cases/import Employee Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STS\automation-tool-source\Intranet\test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DotNet\automation-tool-source\Intranet\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608F7DC-B154-4A9F-B878-67FC28F3C6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A454263D-043D-4AEE-AFEB-275F53D5D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
+    <workbookView xWindow="38295" yWindow="240" windowWidth="28800" windowHeight="15345" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Staff</t>
+  </si>
+  <si>
+    <t>IntranetUsername</t>
+  </si>
+  <si>
+    <t>IntranetPassword</t>
   </si>
 </sst>
 </file>
@@ -562,29 +568,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469DA315-7D92-470F-A746-E9829220CF23}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,11 +636,17 @@
       <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -680,11 +692,11 @@
       <c r="O2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -730,11 +742,11 @@
       <c r="O3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -780,11 +792,11 @@
       <c r="O4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -831,7 +843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
